--- a/testing_results/resultx.xlsx
+++ b/testing_results/resultx.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14040" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14100" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="25">
   <si>
     <t>Perceptron+hinge loss</t>
   </si>
@@ -71,6 +71,30 @@
   </si>
   <si>
     <t>AVG Perceptron</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            #phi = e_phi + tfeats(yyhat, self.order)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            phi = e_phi</t>
+  </si>
+  <si>
+    <t>40 epoches</t>
+  </si>
+  <si>
+    <t>phi = e_phi + last_e_phi</t>
+  </si>
+  <si>
+    <t>order 2</t>
+  </si>
+  <si>
+    <t>order 1</t>
+  </si>
+  <si>
+    <t>40 epochs</t>
   </si>
 </sst>
 </file>
@@ -83,6 +107,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -715,10 +740,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -727,9 +752,10 @@
     <col min="3" max="3" width="21.83203125" customWidth="1"/>
     <col min="6" max="6" width="29.33203125" customWidth="1"/>
     <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -737,7 +763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -764,8 +790,14 @@
       <c r="I2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -792,8 +824,17 @@
       <c r="I3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -820,8 +861,11 @@
       <c r="I4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4">
+        <v>0.7903</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -834,8 +878,11 @@
       <c r="G5">
         <v>0.77449999999999997</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5">
+        <v>0.79110000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -848,8 +895,11 @@
       <c r="G6">
         <v>0.77390000000000003</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6">
+        <v>0.79059999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -862,8 +912,20 @@
       <c r="G7">
         <v>0.7742</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J7">
+        <v>0.79039999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="J8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8">
+        <f>MAX(J4:J7)</f>
+        <v>0.79110000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -876,8 +938,15 @@
       <c r="G9">
         <v>0.77300000000000002</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <f>VAR(J4:J7)</f>
+        <v>1.2666666666667577E-7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -890,8 +959,15 @@
       <c r="G10">
         <v>0.77429999999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <f>AVERAGE(J4:J7)</f>
+        <v>0.79059999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -905,7 +981,7 @@
         <v>0.77480000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -919,7 +995,7 @@
         <v>0.77480000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -932,8 +1008,17 @@
       <c r="G13">
         <v>0.77529999999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -946,8 +1031,16 @@
       <c r="G14">
         <v>0.77470000000000006</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="J15">
+        <v>0.74250000000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -960,8 +1053,11 @@
       <c r="G16">
         <v>0.7712</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="J16">
+        <v>0.74229999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -974,8 +1070,11 @@
       <c r="G17">
         <v>0.77290000000000003</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="J17">
+        <v>0.74219999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -988,8 +1087,11 @@
       <c r="G18">
         <v>0.77370000000000005</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="J18">
+        <v>0.7419</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1002,8 +1104,15 @@
       <c r="G19">
         <v>0.77439999999999998</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="J19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K19">
+        <f>MAX(J15:J18)</f>
+        <v>0.74250000000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -1016,8 +1125,15 @@
       <c r="G20">
         <v>0.77400000000000002</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="J20" t="s">
+        <v>2</v>
+      </c>
+      <c r="K20">
+        <f>VAR(J15:J18)</f>
+        <v>6.2500000000006588E-8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -1030,8 +1146,15 @@
       <c r="G21">
         <v>0.77329999999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="J21" t="s">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <f>AVERAGE(J15:J18)</f>
+        <v>0.74222499999999991</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1045,7 +1168,7 @@
         <v>0.77139999999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1059,7 +1182,7 @@
         <v>0.77370000000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -1073,7 +1196,7 @@
         <v>0.77429999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -1090,7 +1213,7 @@
         <v>0.77500000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -1104,7 +1227,7 @@
         <v>0.77500000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
         <v>12</v>
       </c>

--- a/testing_results/resultx.xlsx
+++ b/testing_results/resultx.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14100" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="25">
-  <si>
-    <t>Perceptron+hinge loss</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="36">
   <si>
     <t>avg</t>
   </si>
@@ -31,18 +28,6 @@
     <t>var</t>
   </si>
   <si>
-    <t>suffle</t>
-  </si>
-  <si>
-    <t>on past label prediction</t>
-  </si>
-  <si>
-    <t>on local past obs</t>
-  </si>
-  <si>
-    <t>on past labels prediction+obs</t>
-  </si>
-  <si>
     <t>Accuracy over 10-fold 5 epoch</t>
   </si>
   <si>
@@ -95,6 +80,54 @@
   </si>
   <si>
     <t>40 epochs</t>
+  </si>
+  <si>
+    <t>last+current</t>
+  </si>
+  <si>
+    <t>last_current+future</t>
+  </si>
+  <si>
+    <t>local 0 order</t>
+  </si>
+  <si>
+    <t>local 1 order</t>
+  </si>
+  <si>
+    <t>greedy</t>
+  </si>
+  <si>
+    <t>viterby</t>
+  </si>
+  <si>
+    <t>correct per sentence</t>
+  </si>
+  <si>
+    <t>crf</t>
+  </si>
+  <si>
+    <t>classifier</t>
+  </si>
+  <si>
+    <t>accuracy</t>
+  </si>
+  <si>
+    <t>accuracy per sentence</t>
+  </si>
+  <si>
+    <t>local 2 order</t>
+  </si>
+  <si>
+    <t>viterbi</t>
+  </si>
+  <si>
+    <t>m3n</t>
+  </si>
+  <si>
+    <t>baseline</t>
+  </si>
+  <si>
+    <t>local 2 past</t>
   </si>
 </sst>
 </file>
@@ -135,7 +168,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -143,8 +176,88 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -152,23 +265,86 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="37">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -498,233 +674,296 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="9.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="60">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="B2">
-        <v>74.783757808700003</v>
-      </c>
-      <c r="C2">
-        <v>75.888995675199993</v>
-      </c>
-      <c r="E2">
-        <v>80.766458433400004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="B3">
-        <v>73.9067755887</v>
-      </c>
-      <c r="C3">
-        <v>76.802018260500006</v>
-      </c>
-      <c r="E3">
-        <v>82.111965401199996</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4">
+        <v>0.79059999999999997</v>
+      </c>
       <c r="B4">
-        <v>76.489668428599998</v>
+        <v>0.48470000000000002</v>
       </c>
       <c r="C4">
-        <v>74.002883229199995</v>
+        <v>0.79330000000000001</v>
+      </c>
+      <c r="D4">
+        <v>0.48859999999999998</v>
       </c>
       <c r="E4">
-        <v>81.138875540599997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.77180000000000004</v>
+      </c>
+      <c r="F4">
+        <v>0.48980000000000001</v>
+      </c>
+      <c r="G4">
+        <v>0.77569999999999995</v>
+      </c>
+      <c r="H4">
+        <v>0.49009999999999998</v>
+      </c>
+      <c r="J4">
+        <v>0.79079999999999995</v>
+      </c>
+      <c r="K4">
+        <v>0.48930000000000001</v>
+      </c>
+      <c r="L4">
+        <v>0.78859999999999997</v>
+      </c>
+      <c r="M4">
+        <v>0.48920000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5">
+        <v>0.79169999999999996</v>
+      </c>
       <c r="B5">
-        <v>72.561268620899995</v>
+        <v>0.48370000000000002</v>
       </c>
       <c r="C5">
-        <v>72.236905333999999</v>
+        <v>0.79210000000000003</v>
+      </c>
+      <c r="D5">
+        <v>0.4889</v>
       </c>
       <c r="E5">
-        <v>79.721287842400002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>0.77180000000000004</v>
+      </c>
+      <c r="F5">
+        <v>0.48749999999999999</v>
+      </c>
+      <c r="G5">
+        <v>0.77439999999999998</v>
+      </c>
+      <c r="H5">
+        <v>0.4879</v>
+      </c>
+      <c r="J5">
+        <v>0.79069999999999996</v>
+      </c>
+      <c r="K5">
+        <v>0.49</v>
+      </c>
+      <c r="L5">
+        <v>0.79020000000000001</v>
+      </c>
+      <c r="M5">
+        <v>0.49059999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6">
+        <v>0.79069999999999996</v>
+      </c>
       <c r="B6">
-        <v>75.504565112899996</v>
-      </c>
-      <c r="C6">
-        <v>75.949062950499993</v>
+        <v>0.48330000000000001</v>
       </c>
       <c r="E6">
-        <v>79.192695819299999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.77229999999999999</v>
+      </c>
+      <c r="F6">
+        <v>0.49030000000000001</v>
+      </c>
+      <c r="L6">
+        <v>0.79039999999999999</v>
+      </c>
+      <c r="M6">
+        <v>0.48859999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7">
+        <f>AVERAGE(A4:A6)</f>
+        <v>0.79100000000000004</v>
+      </c>
       <c r="B7">
-        <v>74.879865449299999</v>
+        <f t="shared" ref="B7:H7" si="0">AVERAGE(B4:B6)</f>
+        <v>0.4839</v>
       </c>
       <c r="C7">
-        <v>76.333493512700002</v>
+        <f t="shared" si="0"/>
+        <v>0.79269999999999996</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0.48875000000000002</v>
       </c>
       <c r="E7">
-        <v>78.387794329599998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="B8">
-        <v>76.129264776499994</v>
-      </c>
-      <c r="C8">
-        <v>77.318596828400004</v>
-      </c>
-      <c r="E8">
-        <v>78.604036520899996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="B9">
-        <v>75.624699663599998</v>
-      </c>
-      <c r="C9">
-        <v>73.017779913499993</v>
-      </c>
-      <c r="E9">
-        <v>76.153291686700001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="B10">
-        <v>69.293608841899996</v>
-      </c>
-      <c r="C10">
-        <v>74.447381066800006</v>
-      </c>
-      <c r="E10">
-        <v>77.342623738599997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="B11">
-        <v>75.132148005800005</v>
-      </c>
-      <c r="C11">
-        <v>71.119654012500007</v>
-      </c>
-      <c r="E11">
-        <v>82.148005766500006</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <f t="shared" si="0"/>
+        <v>0.77196666666666669</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0.48920000000000002</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0.77505000000000002</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="J7">
+        <f t="shared" ref="J7" si="1">AVERAGE(J4:J6)</f>
+        <v>0.79074999999999995</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ref="K7:M7" si="2">AVERAGE(K4:K6)</f>
+        <v>0.48965000000000003</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>0.7897333333333334</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="2"/>
+        <v>0.48946666666666666</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B12">
-        <f>AVERAGE(B2:B11)</f>
-        <v>74.430562229689997</v>
+        <v>0.79100000000000004</v>
       </c>
       <c r="C12">
-        <f>AVERAGE(C2:C11)</f>
-        <v>74.711677078329984</v>
-      </c>
-      <c r="E12">
-        <v>77.534839019700001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.4839</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B13">
-        <f>VAR(B2:B11)</f>
-        <v>4.520077704003425</v>
+        <v>0.79269999999999996</v>
       </c>
       <c r="C13">
-        <f>VAR(C2:C11)</f>
-        <v>4.3535224291598427</v>
-      </c>
-      <c r="E13">
-        <v>78.375780874599997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="E14">
-        <v>79.0245074483</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="E15">
-        <v>80.478135511800005</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="E16">
-        <v>79.913503123500007</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5">
-      <c r="E17">
-        <v>78.640076886100005</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5">
-      <c r="E18">
-        <v>78.916386352700002</v>
-      </c>
-    </row>
-    <row r="19" spans="4:5">
-      <c r="E19">
-        <v>79.613166746800005</v>
-      </c>
-    </row>
-    <row r="20" spans="4:5">
-      <c r="E20">
-        <v>81.186929360899995</v>
-      </c>
-    </row>
-    <row r="21" spans="4:5">
-      <c r="E21">
-        <v>83.109082172000001</v>
-      </c>
-    </row>
-    <row r="22" spans="4:5">
-      <c r="D22" t="s">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <f>AVERAGE(E2:E21)</f>
-        <v>79.617972128779996</v>
-      </c>
-    </row>
-    <row r="23" spans="4:5">
-      <c r="D23" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23">
-        <f>VAR(E2:E21)</f>
-        <v>3.1224895755761239</v>
+        <v>0.48875000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14">
+        <v>0.79069999999999996</v>
+      </c>
+      <c r="C14">
+        <v>0.48964999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15">
+        <v>0.77190000000000003</v>
+      </c>
+      <c r="C15">
+        <v>0.48920000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16">
+        <v>0.77505000000000002</v>
+      </c>
+      <c r="C16">
+        <v>0.48899999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17">
+        <v>0.74719999999999998</v>
+      </c>
+      <c r="C17">
+        <v>0.34799999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18">
+        <v>0.72319999999999995</v>
+      </c>
+      <c r="C18">
+        <v>0.32819999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19">
+        <v>0.69</v>
+      </c>
+      <c r="C19">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20">
+        <v>0.78969999999999996</v>
+      </c>
+      <c r="C20">
+        <v>0.4894</v>
       </c>
     </row>
   </sheetData>
@@ -740,32 +979,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="3" max="3" width="21.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.33203125" customWidth="1"/>
     <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>0.76639999999999997</v>
@@ -775,10 +1015,10 @@
         <v>0.77300000000000002</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G2">
         <v>0.77210000000000001</v>
@@ -788,18 +1028,21 @@
         <v>0.77610000000000001</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>0.76900000000000002</v>
@@ -809,10 +1052,10 @@
         <v>5.6707065217391193E-6</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G3">
         <v>0.77380000000000004</v>
@@ -822,21 +1065,23 @@
         <v>1.3894927536231959E-6</v>
       </c>
       <c r="I3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>1</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="6"/>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>0.77100000000000002</v>
@@ -846,10 +1091,10 @@
         <v>0.7703875</v>
       </c>
       <c r="D4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G4">
         <v>0.77459999999999996</v>
@@ -859,389 +1104,534 @@
         <v>0.77395833333333319</v>
       </c>
       <c r="I4" t="s">
-        <v>1</v>
-      </c>
-      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
         <v>0.7903</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>0.77139999999999997</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G5">
         <v>0.77449999999999997</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="4">
         <v>0.79110000000000003</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>0.7712</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G6">
         <v>0.77390000000000003</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="4">
         <v>0.79059999999999997</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="6"/>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>0.77129999999999999</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G7">
         <v>0.7742</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="4">
         <v>0.79039999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="J8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8">
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="6"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="J8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="5">
         <f>MAX(J4:J7)</f>
         <v>0.79110000000000003</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="6"/>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B9">
         <v>0.76600000000000001</v>
       </c>
       <c r="F9" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G9">
         <v>0.77300000000000002</v>
       </c>
-      <c r="J9" t="s">
-        <v>2</v>
-      </c>
-      <c r="K9">
+      <c r="J9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K9" s="5">
         <f>VAR(J4:J7)</f>
         <v>1.2666666666667577E-7</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="6"/>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B10">
         <v>0.76929999999999998</v>
       </c>
       <c r="F10" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G10">
         <v>0.77429999999999999</v>
       </c>
-      <c r="J10" t="s">
-        <v>1</v>
-      </c>
-      <c r="K10">
+      <c r="J10" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K10" s="8">
         <f>AVERAGE(J4:J7)</f>
         <v>0.79059999999999997</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B11">
         <v>0.77080000000000004</v>
       </c>
       <c r="F11" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G11">
         <v>0.77480000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B12">
         <v>0.7722</v>
       </c>
       <c r="F12" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G12">
         <v>0.77480000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B13">
         <v>0.77229999999999999</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G13">
         <v>0.77529999999999999</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" s="2"/>
+      <c r="M13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K13" t="s">
-        <v>21</v>
-      </c>
-      <c r="M13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B14">
         <v>0.77159999999999995</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G14">
         <v>0.77470000000000006</v>
       </c>
-      <c r="J14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="J15">
+      <c r="J14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="6"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="J15" s="4">
         <v>0.74250000000000005</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="6"/>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B16">
         <v>0.76539999999999997</v>
       </c>
       <c r="F16" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G16">
         <v>0.7712</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="4">
         <v>0.74229999999999996</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="6"/>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B17">
         <v>0.76970000000000005</v>
       </c>
       <c r="F17" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G17">
         <v>0.77290000000000003</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="4">
         <v>0.74219999999999997</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="6"/>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B18">
         <v>0.77170000000000005</v>
       </c>
       <c r="F18" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G18">
         <v>0.77370000000000005</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="4">
         <v>0.7419</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="6"/>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B19">
         <v>0.77190000000000003</v>
       </c>
       <c r="F19" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G19">
         <v>0.77439999999999998</v>
       </c>
-      <c r="J19" t="s">
-        <v>14</v>
-      </c>
-      <c r="K19">
+      <c r="J19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K19" s="5">
         <f>MAX(J15:J18)</f>
         <v>0.74250000000000005</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="L19" s="5"/>
+      <c r="M19" s="6"/>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B20">
         <v>0.7712</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G20">
         <v>0.77400000000000002</v>
       </c>
-      <c r="J20" t="s">
-        <v>2</v>
-      </c>
-      <c r="K20">
+      <c r="J20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K20" s="5">
         <f>VAR(J15:J18)</f>
         <v>6.2500000000006588E-8</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="L20" s="5"/>
+      <c r="M20" s="6"/>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B21">
         <v>0.7722</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G21">
         <v>0.77329999999999999</v>
       </c>
-      <c r="J21" t="s">
-        <v>1</v>
-      </c>
-      <c r="K21">
+      <c r="J21" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K21" s="8">
         <f>AVERAGE(J15:J18)</f>
         <v>0.74222499999999991</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="L21" s="8"/>
+      <c r="M21" s="9"/>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B23">
         <v>0.76480000000000004</v>
       </c>
       <c r="F23" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G23">
         <v>0.77139999999999997</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="J23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B24">
         <v>0.77059999999999995</v>
       </c>
       <c r="F24" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G24">
         <v>0.77370000000000005</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="J24">
+        <v>0.79290000000000005</v>
+      </c>
+      <c r="K24">
+        <f>AVERAGE(J24:J27)</f>
+        <v>0.79207499999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B25">
         <v>0.77159999999999995</v>
       </c>
       <c r="F25" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G25">
         <v>0.77429999999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="J25">
+        <v>0.79169999999999996</v>
+      </c>
+      <c r="K25">
+        <f>VAR(J24:J27)</f>
+        <v>4.4250000000004129E-7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B26">
         <v>0.77300000000000002</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G26">
         <v>0.77500000000000002</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="J26">
+        <v>0.7923</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B27">
         <v>0.77259999999999995</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G27">
         <v>0.77500000000000002</v>
       </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="J27">
+        <v>0.79139999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B28">
         <v>0.77210000000000001</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G28">
         <v>0.77610000000000001</v>
       </c>
       <c r="H28" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="J29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="J30">
+        <v>0.79090000000000005</v>
+      </c>
+      <c r="K30">
+        <f>AVERAGE(J30:J33)</f>
+        <v>0.79072500000000012</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="B31">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="C31">
+        <f>AVERAGE(B31:B34)</f>
+        <v>0.77212499999999995</v>
+      </c>
+      <c r="D31">
+        <f>AVERAGE(E31:E34)</f>
+        <v>0.774675</v>
+      </c>
+      <c r="E31">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="J31">
+        <v>0.79120000000000001</v>
+      </c>
+      <c r="K31">
+        <f>VAR(J30:J33)</f>
+        <v>3.2249999999998998E-7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="B32">
+        <v>0.77190000000000003</v>
+      </c>
+      <c r="C32">
+        <f>VAR(B31:B34)</f>
+        <v>4.491666666666861E-7</v>
+      </c>
+      <c r="D32">
+        <f>VAR(E31:E34)</f>
+        <v>7.5833333333349941E-8</v>
+      </c>
+      <c r="E32">
+        <v>0.77439999999999998</v>
+      </c>
+      <c r="J32">
+        <v>0.79090000000000005</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33">
+        <v>0.7722</v>
+      </c>
+      <c r="E33">
+        <v>0.77480000000000004</v>
+      </c>
+      <c r="J33">
+        <v>0.78990000000000005</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34">
+        <v>0.77139999999999997</v>
+      </c>
+      <c r="E34">
+        <v>0.77449999999999997</v>
       </c>
     </row>
   </sheetData>
